--- a/pred_ohlcv/54_21/2020-01-19 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XVG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-271177.5985</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-30536.88479999997</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-25536.88479999997</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-20426.31419999997</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-22926.31419999997</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1173239.72348075</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1111736.86008075</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1112865.87528075</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1138501.87528075</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1138391.87528075</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1114818.65938075</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1125957.20618075</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1133292.20618075</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1133182.58108075</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1497182.58108075</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2777891.815680751</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2850378.19188075</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2850378.19188075</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2850266.19188075</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4047013.47858075</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4072013.47858075</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4182013.47858075</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4091827.75298075</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3759523.08808075</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3759523.08808075</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3962830.66878075</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4220801.34138075</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4344733.18128075</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4198082.70358075</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XVG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-271177.5985</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-30536.88479999997</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-25536.88479999997</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-20426.31419999997</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-22926.31419999997</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1291013.85888075</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1291013.85888075</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1342252.96868075</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1222252.96868075</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1277056.40988075</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1173239.72348075</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1111736.86008075</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1112865.87528075</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1138501.87528075</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1138391.87528075</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1114818.65938075</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1084670.79508075</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1125957.20618075</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1125847.20618075</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1133292.20618075</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1133182.58108075</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1497182.58108075</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2777891.815680751</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4091827.75298075</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3759523.08808075</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4344733.18128075</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4352123.18128075</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4357120.18128075</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4356122.43928075</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4357620.18928075</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4357509.43928075</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4359477.018580751</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4175693.703580751</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4175582.703580751</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4175582.703580751</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
